--- a/7rmartSupermarket/src/test/resources/TestData.xlsx
+++ b/7rmartSupermarket/src/test/resources/TestData.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lariy\eclipse-workspace\7rmartSupermarket\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lariy\git\7rmartSupermarketProject\7rmartSupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC0CD7D-484D-40D3-9621-01DB4F1B1005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C07CD83-B940-4607-A730-4FFAE578BBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="4608" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{C6AD6E8D-A4A9-43BD-A631-A7620463AE80}"/>
+    <workbookView xWindow="3732" yWindow="1812" windowWidth="17280" windowHeight="8880" firstSheet="5" activeTab="5" xr2:uid="{C6AD6E8D-A4A9-43BD-A631-A7620463AE80}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
     <sheet name="ManageLocation" sheetId="2" r:id="rId2"/>
-    <sheet name="MobileSliderPage" sheetId="3" r:id="rId3"/>
-    <sheet name="ManagerOrderPage" sheetId="4" r:id="rId4"/>
-    <sheet name="CategoryPage" sheetId="5" r:id="rId5"/>
-    <sheet name="ManageSliderPage" sheetId="6" r:id="rId6"/>
-    <sheet name="ManageOfferCodePage" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="MobileSliderPage" sheetId="3" r:id="rId4"/>
+    <sheet name="ManagerOrderPage" sheetId="4" r:id="rId5"/>
+    <sheet name="CategoryPage" sheetId="5" r:id="rId6"/>
+    <sheet name="ManageSliderPage" sheetId="6" r:id="rId7"/>
+    <sheet name="ManageOfferCodePage" sheetId="7" r:id="rId8"/>
+    <sheet name="AdminUsersPage" sheetId="9" r:id="rId9"/>
+    <sheet name="ManageDeliveryBoyPage" sheetId="10" r:id="rId10"/>
+    <sheet name="ManageExpensePage" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -78,9 +82,6 @@
     <t>UnPaid</t>
   </si>
   <si>
-    <t>RiyaCategory</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -100,13 +101,61 @@
   </si>
   <si>
     <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>aaq</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>riya</t>
+  </si>
+  <si>
+    <t>uuu</t>
+  </si>
+  <si>
+    <t>riyaa@gmail.com</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Admin(Admin)</t>
+  </si>
+  <si>
+    <t>Debit Bank</t>
+  </si>
+  <si>
+    <t>RiyaaCategory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +170,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,10 +199,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,11 +573,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9E0043-8295-48FA-A8E0-BEF774835247}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0DFB86E2-BD3B-4514-82A1-4885CCCC9A47}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3029B53-C0C1-4BEB-A252-D4AEC495EC9E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45424</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>780</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BC3FA0-0569-4332-9023-EA83A00CE093}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -539,10 +700,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,11 +714,11 @@
         <v>555</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -565,6 +726,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1409D83B-B236-4BC3-A9A4-F95671F75866}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A619FE-F513-4C02-AE7E-A7F606F4C316}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -589,7 +762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB99AA47-BA08-44B3-89C4-8166C58713FD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -623,12 +796,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329A0ECA-2122-4F2D-B8E3-88F4B54721B7}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +816,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -651,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09359960-C656-4FD8-8264-2FCF4F97EE9E}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -666,12 +839,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1C9933-A889-4164-869D-2493CAEA76A8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -701,7 +874,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -713,4 +886,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722E6B34-9BDC-4512-A104-5F9E0B83FF85}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>